--- a/public/files/import/invoices.xlsx
+++ b/public/files/import/invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="22800" windowHeight="10230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="invoices" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -189,16 +189,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,53 +217,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,14 +248,76 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,47 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,181 +348,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,6 +551,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -561,21 +585,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -601,15 +610,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,148 +642,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1327,6 +1327,9 @@
       <c r="G2">
         <v>10</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
@@ -1347,7 +1350,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1379,6 +1382,9 @@
       <c r="B2" t="s">
         <v>36</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
         <v>37</v>
       </c>
@@ -1389,6 +1395,9 @@
       </c>
       <c r="B3" t="s">
         <v>18</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -1410,7 +1419,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1458,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>

--- a/public/files/import/invoices.xlsx
+++ b/public/files/import/invoices.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView windowWidth="19200" windowHeight="7110" tabRatio="650" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="invoices" sheetId="1" r:id="rId4"/>
-    <sheet name="invoice_items" sheetId="2" r:id="rId5"/>
-    <sheet name="invoice_item_taxes" sheetId="3" r:id="rId6"/>
-    <sheet name="invoice_histories" sheetId="4" r:id="rId7"/>
-    <sheet name="invoice_totals" sheetId="5" r:id="rId8"/>
-    <sheet name="invoice_transactions" sheetId="6" r:id="rId9"/>
+    <sheet name="invoices" sheetId="1" r:id="rId1"/>
+    <sheet name="invoice_items" sheetId="2" r:id="rId2"/>
+    <sheet name="invoice_item_taxes" sheetId="3" r:id="rId3"/>
+    <sheet name="invoice_histories" sheetId="4" r:id="rId4"/>
+    <sheet name="invoice_totals" sheetId="5" r:id="rId5"/>
+    <sheet name="invoice_transactions" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>invoice_number</t>
   </si>
@@ -46,10 +45,7 @@
     <t>currency_rate</t>
   </si>
   <si>
-    <t>category_id</t>
-  </si>
-  <si>
-    <t>contact_id</t>
+    <t>category_name</t>
   </si>
   <si>
     <t>contact_name</t>
@@ -73,7 +69,7 @@
     <t>footer</t>
   </si>
   <si>
-    <t>INV-84376</t>
+    <t>INV-00001</t>
   </si>
   <si>
     <t>paid</t>
@@ -85,63 +81,63 @@
     <t>USD</t>
   </si>
   <si>
+    <t>Sales</t>
+  </si>
+  <si>
     <t>Test Customer</t>
   </si>
   <si>
-    <t>test@customer</t>
+    <t>test@customer.com</t>
   </si>
   <si>
     <t>Est.</t>
   </si>
   <si>
-    <t>invoice_id</t>
-  </si>
-  <si>
-    <t>item_id</t>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Test Item</t>
+  </si>
+  <si>
+    <t>tax_rate</t>
+  </si>
+  <si>
+    <t>empty---</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>INV-00001 added!</t>
+  </si>
+  <si>
+    <t>$10.00 Payment</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>tax</t>
-  </si>
-  <si>
-    <t>Test Item</t>
-  </si>
-  <si>
-    <t>invoice_item_id</t>
-  </si>
-  <si>
-    <t>tax_id</t>
-  </si>
-  <si>
-    <t>notify</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>INV-84376 added!</t>
-  </si>
-  <si>
-    <t>$10.00 Payment</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>sort_order</t>
   </si>
   <si>
@@ -157,10 +153,7 @@
     <t>paid_at</t>
   </si>
   <si>
-    <t>account_id</t>
-  </si>
-  <si>
-    <t>document_id</t>
+    <t>account_name</t>
   </si>
   <si>
     <t>payment_method</t>
@@ -170,6 +163,9 @@
   </si>
   <si>
     <t>reconciled</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
   <si>
     <t>offline-payments.cash.1</t>
@@ -178,46 +174,680 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -502,43 +1132,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.5636363636364" customWidth="1"/>
+    <col min="2" max="2" width="15.2818181818182" customWidth="1"/>
+    <col min="3" max="3" width="8.13636363636364" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.8545454545455" customWidth="1"/>
+    <col min="6" max="6" width="8.13636363636364" customWidth="1"/>
+    <col min="7" max="10" width="16.4272727272727" customWidth="1"/>
+    <col min="11" max="11" width="21.1363636363636" customWidth="1"/>
+    <col min="12" max="12" width="22.2818181818182" customWidth="1"/>
+    <col min="13" max="13" width="16.4272727272727" customWidth="1"/>
+    <col min="14" max="14" width="18.7090909090909" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="8.13636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,462 +1210,389 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>10.0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="H2">
-        <v>1.0</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="J2" t="s">
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.5636363636364" customWidth="1"/>
+    <col min="2" max="2" width="11.7090909090909" customWidth="1"/>
+    <col min="3" max="3" width="10.5727272727273" customWidth="1"/>
+    <col min="4" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="4.57272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
       <c r="D2">
-        <v>1.0</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>10.0</v>
-      </c>
-      <c r="F2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.5636363636364" customWidth="1"/>
+    <col min="2" max="2" width="11.7090909090909" customWidth="1"/>
+    <col min="3" max="3" width="10.5727272727273" customWidth="1"/>
+    <col min="4" max="4" width="8.13636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.5636363636364" customWidth="1"/>
+    <col min="2" max="3" width="8.13636363636364" customWidth="1"/>
+    <col min="4" max="4" width="19.9909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.5636363636364" customWidth="1"/>
+    <col min="2" max="2" width="11.7090909090909" customWidth="1"/>
+    <col min="3" max="3" width="22.2818181818182" customWidth="1"/>
+    <col min="4" max="4" width="8.13636363636364" customWidth="1"/>
+    <col min="5" max="5" width="12.8545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2">
-        <v>10.0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3">
-        <v>10.0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.5636363636364" customWidth="1"/>
+    <col min="2" max="2" width="12.8545454545455" customWidth="1"/>
+    <col min="3" max="3" width="8.13636363636364" customWidth="1"/>
+    <col min="4" max="5" width="16.4272727272727" customWidth="1"/>
+    <col min="6" max="6" width="15.2818181818182" customWidth="1"/>
+    <col min="7" max="7" width="21.1363636363636" customWidth="1"/>
+    <col min="8" max="8" width="16.4272727272727" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="28.1363636363636" customWidth="1"/>
+    <col min="11" max="11" width="11.7090909090909" customWidth="1"/>
+    <col min="12" max="12" width="12.8545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2">
-        <v>10.0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>1.0</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/files/import/invoices.xlsx
+++ b/public/files/import/invoices.xlsx
@@ -100,7 +100,7 @@
     <t>test@customer.com</t>
   </si>
   <si>
-    <t>US</t>
+    <t>United States</t>
   </si>
   <si>
     <t>Est.</t>
@@ -186,11 +186,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -198,6 +198,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -205,6 +213,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -213,7 +251,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,45 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -274,83 +341,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,25 +365,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,157 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,26 +559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,37 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,147 +627,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/public/files/import/invoices.xlsx
+++ b/public/files/import/invoices.xlsx
@@ -1,56 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9215" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="invoices"/>
-    <sheet r:id="rId2" sheetId="2" name="invoice_items"/>
-    <sheet r:id="rId3" sheetId="3" name="invoice_item_taxes"/>
-    <sheet r:id="rId4" sheetId="4" name="invoice_histories"/>
-    <sheet r:id="rId5" sheetId="5" name="invoice_totals"/>
-    <sheet r:id="rId6" sheetId="6" name="invoice_transactions"/>
+    <sheet name="invoices" sheetId="1" r:id="rId1"/>
+    <sheet name="invoice_items" sheetId="2" r:id="rId2"/>
+    <sheet name="invoice_item_taxes" sheetId="3" r:id="rId3"/>
+    <sheet name="invoice_histories" sheetId="4" r:id="rId4"/>
+    <sheet name="invoice_totals" sheetId="5" r:id="rId5"/>
+    <sheet name="invoice_transactions" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>invoice_number</t>
   </si>
   <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>invoiced_at</t>
+  </si>
+  <si>
+    <t>due_at</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>currency_code</t>
+  </si>
+  <si>
+    <t>currency_rate</t>
+  </si>
+  <si>
+    <t>category_name</t>
+  </si>
+  <si>
+    <t>contact_name</t>
+  </si>
+  <si>
+    <t>contact_email</t>
+  </si>
+  <si>
+    <t>contact_tax_number</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>contact_address</t>
+  </si>
+  <si>
+    <t>contact_country</t>
+  </si>
+  <si>
+    <t>contact_state</t>
+  </si>
+  <si>
+    <t>contact_zip_code</t>
+  </si>
+  <si>
+    <t>contact_city</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>footer</t>
+  </si>
+  <si>
+    <t>INV-00001</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Test Customer</t>
+  </si>
+  <si>
+    <t>test@customer.com</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>item_description</t>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Test Item</t>
+  </si>
+  <si>
+    <t>test invoice item</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>tax_rate</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>INV-00001 added!</t>
+  </si>
+  <si>
+    <t>$10.00 Payment</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sort_order</t>
+  </si>
+  <si>
+    <t>sub_total</t>
+  </si>
+  <si>
+    <t>invoices.sub_total</t>
+  </si>
+  <si>
+    <t>invoices.total</t>
+  </si>
+  <si>
     <t>transaction_number</t>
   </si>
   <si>
     <t>paid_at</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>currency_code</t>
-  </si>
-  <si>
-    <t>currency_rate</t>
-  </si>
-  <si>
     <t>account_name</t>
   </si>
   <si>
-    <t>contact_email</t>
-  </si>
-  <si>
-    <t>category_name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>payment_method</t>
   </si>
   <si>
@@ -60,172 +186,393 @@
     <t>reconciled</t>
   </si>
   <si>
-    <t>INV-00001</t>
-  </si>
-  <si>
     <t>TRA-00001</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>test@customer.com</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>offline-payments.cash.1</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sort_order</t>
-  </si>
-  <si>
-    <t>sub_total</t>
-  </si>
-  <si>
-    <t>invoices.sub_total</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>invoices.total</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>notify</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>INV-00001 added!</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>$10.00 Payment</t>
-  </si>
-  <si>
-    <t>item_name</t>
-  </si>
-  <si>
-    <t>tax_rate</t>
-  </si>
-  <si>
-    <t>item_type</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>tax</t>
-  </si>
-  <si>
-    <t>Test Item</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>order_number</t>
-  </si>
-  <si>
-    <t>invoiced_at</t>
-  </si>
-  <si>
-    <t>due_at</t>
-  </si>
-  <si>
-    <t>contact_name</t>
-  </si>
-  <si>
-    <t>contact_tax_number</t>
-  </si>
-  <si>
-    <t>contact_phone</t>
-  </si>
-  <si>
-    <t>contact_address</t>
-  </si>
-  <si>
-    <t>contact_country</t>
-  </si>
-  <si>
-    <t>contact_state</t>
-  </si>
-  <si>
-    <t>contact_zip_code</t>
-  </si>
-  <si>
-    <t>contact_city</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>footer</t>
-  </si>
-  <si>
-    <t>Test Customer</t>
-  </si>
-  <si>
-    <t>Est.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -237,60 +584,341 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -301,10 +929,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -342,71 +970,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,7 +1062,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -457,11 +1085,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -470,13 +1098,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -486,7 +1114,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -495,7 +1123,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,7 +1132,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -512,10 +1140,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -575,112 +1203,110 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" style="8" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="8" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="8" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="8" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.0092592592593" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.0092592592593" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.00925925925926" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.0092592592593" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.0092592592593" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.00925925925926" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.0092592592593" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.0092592592593" style="3" customWidth="1"/>
+    <col min="9" max="10" width="16.0092592592593" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.0092592592593" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.0092592592593" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.0092592592593" style="1" customWidth="1"/>
+    <col min="14" max="15" width="18.0092592592593" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.0092592592593" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.0092592592593" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.0092592592593" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.00925925925926" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.00925925925926" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" ht="18.75" customHeight="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" ht="18.75" customHeight="1" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>20</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5">
         <v>43831</v>
@@ -688,250 +1314,259 @@
       <c r="E2" s="5">
         <v>43831</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="13">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="11">
+        <v>22</v>
+      </c>
+      <c r="H2" s="13">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+        <v>25</v>
+      </c>
       <c r="S2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="1"/>
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" style="8" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="4.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.0092592592593" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.0092592592593" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.0092592592593" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.0092592592593" style="9" customWidth="1"/>
+    <col min="6" max="7" width="6.00925925925926" style="9" customWidth="1"/>
+    <col min="8" max="8" width="4.00925925925926" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="E2" s="11">
         <v>1</v>
-      </c>
-      <c r="E2" s="11">
-        <v>10</v>
       </c>
       <c r="F2" s="11">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="11">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" style="8" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.0092592592593" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.0092592592593" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.0092592592593" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.00925925925926" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" style="8" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.0092592592593" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.00925925925926" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.00925925925926" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.0092592592593" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" ht="18.75" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" ht="18.75" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" style="8" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.0092592592593" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.0092592592593" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.0092592592593" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.00925925925926" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.0092592592593" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6">
         <v>10</v>
@@ -940,15 +1575,15 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" ht="18.75" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6">
         <v>10</v>
@@ -959,82 +1594,85 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" style="8" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.0092592592593" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.0092592592593" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.287037037037" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.00925925925926" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.0092592592593" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.0092592592593" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.0092592592593" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.0092592592593" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.0092592592593" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.0092592592593" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.0092592592593" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.0092592592593" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.0092592592593" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" ht="18.75" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" ht="18.75" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="5">
         <v>43831</v>
@@ -1043,28 +1681,29 @@
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>